--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TAKUMI\git\AtCoder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{07A2FE5B-3AA3-4C3A-BF60-FCB1A47954BF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90847563-1340-4811-B989-64CF1E2D9E9B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{EC209404-72D2-4647-A8D0-2A68136ECFB8}"/>
   </bookViews>
@@ -34,18 +34,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>コンテスト名称</t>
   </si>
   <si>
     <t>日付</t>
-  </si>
-  <si>
-    <t>RT</t>
-  </si>
-  <si>
-    <t>PF</t>
   </si>
   <si>
     <t>RT差分</t>
@@ -61,6 +55,18 @@
   </si>
   <si>
     <t>ABC257</t>
+  </si>
+  <si>
+    <t>ARC143</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レーティング</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パフォーマンス</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -189,7 +195,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>RT</c:v>
+                  <c:v>レーティング</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -208,10 +214,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$4</c:f>
+              <c:f>Sheet1!$C$2:$C$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>12</c:v>
                 </c:pt>
@@ -221,6 +227,9 @@
                 <c:pt idx="2">
                   <c:v>71</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>104</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -228,57 +237,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-088B-4BB8-BB7C-68A611F7407C}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>PF</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$D$2:$D$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>242</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>148</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>476</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-088B-4BB8-BB7C-68A611F7407C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -561,15 +519,18 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$4</c:f>
+              <c:f>Sheet1!$E$2:$E$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="1">
                   <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>33</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -578,54 +539,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-40DF-474F-B044-23088E6862C9}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$F$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>PF差分</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$F$2:$F$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="1">
-                  <c:v>-94</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>328</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-40DF-474F-B044-23088E6862C9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -830,6 +743,613 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PF差分</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$2:$F$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="1">
+                  <c:v>-94</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>328</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-107</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6C8C-4A0D-B46C-264401699B41}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="772178232"/>
+        <c:axId val="772179872"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="772178232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="772179872"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="772179872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="772178232"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>パフォーマンス</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>242</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>476</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>369</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-97B2-4FD4-BF06-3F9BB66E6F1F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="813867008"/>
+        <c:axId val="813867992"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="813867008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="813867992"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="813867992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="813867008"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -910,6 +1430,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -1427,6 +2027,1038 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1948,14 +3580,14 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>533399</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>180974</xdr:rowOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>200024</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>95249</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1982,16 +3614,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>238124</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>47624</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>171449</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>180974</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2011,6 +3643,82 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="グラフ 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2105B469-7CEC-42B8-8221-1B376C575632}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="13" name="グラフ 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29AFF3B3-9E64-44EF-A132-534EE951642F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2316,10 +4024,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF95F526-931F-4ED7-88D5-BFE57236245A}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2335,21 +4043,21 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1">
         <v>44730</v>
@@ -2363,7 +4071,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3" s="1">
         <v>44731</v>
@@ -2385,7 +4093,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1">
         <v>44737</v>
@@ -2405,9 +4113,32 @@
         <v>328</v>
       </c>
     </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1">
+        <v>44738</v>
+      </c>
+      <c r="C5">
+        <v>104</v>
+      </c>
+      <c r="D5">
+        <v>369</v>
+      </c>
+      <c r="E5">
+        <f>C5-C4</f>
+        <v>33</v>
+      </c>
+      <c r="F5">
+        <f>D5-D4</f>
+        <v>-107</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>